--- a/Produtos_Sem_Foto.xlsx
+++ b/Produtos_Sem_Foto.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Castro\Documents\verificaçao-de-fotos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78BB93-4083-4040-8FEA-CE15DCAB0C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA273DC-1079-4111-9BAD-4E08F6CBD9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$477</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="954">
   <si>
     <t>Código</t>
   </si>
@@ -517,6 +520,12 @@
     <t>KIT 20 PRO-X SERIE 1 PTO ACESS. BCO</t>
   </si>
   <si>
+    <t>83.0531</t>
+  </si>
+  <si>
+    <t>BIC 24 21V OGGI HACKER PTO/RS/AZ 2024</t>
+  </si>
+  <si>
     <t>02.0455</t>
   </si>
   <si>
@@ -697,6 +706,18 @@
     <t>QUADRO 16 REB WENDY LARANJA NEON</t>
   </si>
   <si>
+    <t>83.0670</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY PRETO</t>
+  </si>
+  <si>
+    <t>83.0672</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY VERMELHO</t>
+  </si>
+  <si>
     <t>83.0674</t>
   </si>
   <si>
@@ -1003,6 +1024,18 @@
     <t>SELIM E-MTB C/CAVA S/CAR DDK-D3163 PTO</t>
   </si>
   <si>
+    <t>83.0763</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 15,5 21V OGGI HACKER SPORT GFT/VM/PTO</t>
+  </si>
+  <si>
+    <t>83.0766</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 15,5 8V OGGI HACKER HDS ESSA GFT/RS/PTO 2025</t>
+  </si>
+  <si>
     <t>12.0067</t>
   </si>
   <si>
@@ -1357,12 +1390,6 @@
     <t>CUBO K7 36F VIPER ROLLER DISC PRETO C/BLOC</t>
   </si>
   <si>
-    <t>83.0896</t>
-  </si>
-  <si>
-    <t>BICICLETA ARO 29 21V FIRST LIFTY TAM 17.5 PRATA/ BRITO - 53471</t>
-  </si>
-  <si>
     <t>21.0112</t>
   </si>
   <si>
@@ -1513,12 +1540,6 @@
     <t>QUADRO 29 AL 17.5 FIRST FOSCO PRETO/ VERMELHO LIFTY - 55368</t>
   </si>
   <si>
-    <t>13.0986</t>
-  </si>
-  <si>
-    <t>QUADRO 29 AL 15.5 FIRST FEM ROSA CHICLETE/ PRATA LIFTY - 53968</t>
-  </si>
-  <si>
     <t>13.0987</t>
   </si>
   <si>
@@ -1861,12 +1882,6 @@
     <t>BICICLETA ARO 29 21V TAM 15.5 FIRST FOSCO PRETO/ VERDE E AMARELO LIFTY</t>
   </si>
   <si>
-    <t>83.0947</t>
-  </si>
-  <si>
-    <t>BICICLETA ARO 29 21V TAM 15.5 FIRST FEM LARANJA CHICLETE/ CHUMBO LIFTY - 52334</t>
-  </si>
-  <si>
     <t>83.0948</t>
   </si>
   <si>
@@ -2558,6 +2573,318 @@
   </si>
   <si>
     <t>RODA LIVRE 24D SHIFTECH</t>
+  </si>
+  <si>
+    <t>14.0093</t>
+  </si>
+  <si>
+    <t>CAMBIO DIANT 28.6 YAMADA 24/34/42D CROMADO/ Q-30 (P.C)</t>
+  </si>
+  <si>
+    <t>83.0984</t>
+  </si>
+  <si>
+    <t>BICICLETA ELETRICA RIFANI 1000W 60V (COMPLETA) PRETO</t>
+  </si>
+  <si>
+    <t>83.0985</t>
+  </si>
+  <si>
+    <t>BICICLETA ELETRICA RIFANI 1000W 60V (COMPLETA) CINZA</t>
+  </si>
+  <si>
+    <t>83.0986</t>
+  </si>
+  <si>
+    <t>BICICLETA ELETRICA RIFANI 1000W 60V (COMPLETA) VERMELHO</t>
+  </si>
+  <si>
+    <t>83.0987</t>
+  </si>
+  <si>
+    <t>BICICLETA ELETRICA RIFANI 1000W 60V (COMPLETA) AZUL</t>
+  </si>
+  <si>
+    <t>83.0988</t>
+  </si>
+  <si>
+    <t>BICICLETA ELETRICA RIFANI 1000W 60V (COMPLETA) BRANCO</t>
+  </si>
+  <si>
+    <t>40.0364</t>
+  </si>
+  <si>
+    <t>PISCA D/T LED ABSOLUTE JY-3122</t>
+  </si>
+  <si>
+    <t>15.0134</t>
+  </si>
+  <si>
+    <t>CASSETE 10V SHIMANO TIAGRA105 CS-HG500 (11/34)</t>
+  </si>
+  <si>
+    <t>79.1016</t>
+  </si>
+  <si>
+    <t>OLIVA E PINO CONECTOR SHIMANO PARA SM-BH90 (UN)</t>
+  </si>
+  <si>
+    <t>10.0142</t>
+  </si>
+  <si>
+    <t>PLATAFORMA PLASTICA PARA PEDAL PD22 PAR</t>
+  </si>
+  <si>
+    <t>70.0070</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTE LIQUIDO P/ FREIO A DISCO SM-L VOIL BX VISCOSIDADE</t>
+  </si>
+  <si>
+    <t>14.0094</t>
+  </si>
+  <si>
+    <t>HASTE DE CAMBIO INTERNA SHIMANO RD-M6100 TIPO SG</t>
+  </si>
+  <si>
+    <t>14.0095</t>
+  </si>
+  <si>
+    <t>HASTE DE CAMBIO EXTERNA SHIMANO RD-M6100 TIPO SG</t>
+  </si>
+  <si>
+    <t>15.0135</t>
+  </si>
+  <si>
+    <t>PINHAO 11D SHIMANO CS-M8000</t>
+  </si>
+  <si>
+    <t>15.0136</t>
+  </si>
+  <si>
+    <t>PINHAO 13D SHIMANO CS-M8000</t>
+  </si>
+  <si>
+    <t>15.0137</t>
+  </si>
+  <si>
+    <t>PINHAO 11D SHIMANO CS-HG81/ CS-M4100</t>
+  </si>
+  <si>
+    <t>15.0138</t>
+  </si>
+  <si>
+    <t>PINHAO 10 E 12D SHIMANO CS-M6100/ M7100/ M8100/ M9100</t>
+  </si>
+  <si>
+    <t>79.1017</t>
+  </si>
+  <si>
+    <t>KIT COPINHOS ADAPT ROLO TREINO 142 E BLOCAGEM P/ DRIVO/TUR</t>
+  </si>
+  <si>
+    <t>49.0020</t>
+  </si>
+  <si>
+    <t>FITA ARO 30MM TUBELESS</t>
+  </si>
+  <si>
+    <t>02.0506</t>
+  </si>
+  <si>
+    <t>RODA 29 AERO RIMAXX RUN DISC CUBO K7 PTO S/ ADESIVO</t>
+  </si>
+  <si>
+    <t>83.0989</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 15.5 FIRST AZUL HUNTER/ CHUMBO LIFTY - 49227</t>
+  </si>
+  <si>
+    <t>83.0994</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 17.5 FIRST FEM VIOLETA/ PRATA LIFTY - 54333</t>
+  </si>
+  <si>
+    <t>83.0999</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 19 FIRST FOSCO AZUL GALAXY/ VERMELHO LIFTY - 55429</t>
+  </si>
+  <si>
+    <t>83.1000</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 17.5 FIRST FEM ROSA CHICLETE/ PRETO LIFTY - 54335</t>
+  </si>
+  <si>
+    <t>13.1028</t>
+  </si>
+  <si>
+    <t>QUADRO 26 REB WENDY BRANCO</t>
+  </si>
+  <si>
+    <t>13.1029</t>
+  </si>
+  <si>
+    <t>QUADRO 20 REB WENDY VERDE KAWASAKI</t>
+  </si>
+  <si>
+    <t>13.1030</t>
+  </si>
+  <si>
+    <t>QUADRO 26 REB WENDY VERDE KAWASAKI</t>
+  </si>
+  <si>
+    <t>13.1031</t>
+  </si>
+  <si>
+    <t>QUADRO 24 REB WENDY BRANCO</t>
+  </si>
+  <si>
+    <t>13.1032</t>
+  </si>
+  <si>
+    <t>QUADRO 20 REB WENDY BRANCO</t>
+  </si>
+  <si>
+    <t>13.1033</t>
+  </si>
+  <si>
+    <t>QUADRO 26 REB WENDY AMARELO</t>
+  </si>
+  <si>
+    <t>83.1003</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY AMARELO</t>
+  </si>
+  <si>
+    <t>83.1004</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY BRANCO</t>
+  </si>
+  <si>
+    <t>83.1005</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY ROSA</t>
+  </si>
+  <si>
+    <t>83.1006</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY VIOLETA</t>
+  </si>
+  <si>
+    <t>83.1007</t>
+  </si>
+  <si>
+    <t>BIC 20 CROSS WENDY VERDE</t>
+  </si>
+  <si>
+    <t>83.1008</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 17 8V OGGI HACKER HDS ESSA  VM/BCO/AZ 2025</t>
+  </si>
+  <si>
+    <t>83.1009</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 17 8V OGGI HACKER HDS ESSA GFT/AM/PTO 2025</t>
+  </si>
+  <si>
+    <t>83.1010</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 19 8V OGGI HACKER HDS ESSA VD/BCO/LRJ 2025</t>
+  </si>
+  <si>
+    <t>83.1011</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 15,5 21V OGGI HACKER SPORT GFT/VD/PTO 2023</t>
+  </si>
+  <si>
+    <t>83.1012</t>
+  </si>
+  <si>
+    <t>BIC OGGI 700 VELLOCE (LSS) CLARIS 16V GFT/BCO XL 2026</t>
+  </si>
+  <si>
+    <t>83.1013</t>
+  </si>
+  <si>
+    <t>BIC 29 ELETRICA TAM M 8V OGGI BIG WHEEL 8.0 C/ ACEL. 32KM CZ/VM</t>
+  </si>
+  <si>
+    <t>83.1014</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 17 10V OGGI 7.1 BIG WHEEL CUES VD/VM/CZ</t>
+  </si>
+  <si>
+    <t>83.1015</t>
+  </si>
+  <si>
+    <t>BIC 29 ELETRICA TAM L 8V OGGI BIG WHEEL 8.0 C/ ACEL. 32KM CZ/AM/PTO</t>
+  </si>
+  <si>
+    <t>83.1016</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 15,5 8V OGGI FLOAT 5.0 ESSA GFT/PTO</t>
+  </si>
+  <si>
+    <t>40.0365</t>
+  </si>
+  <si>
+    <t>CAPA PARA MOTO</t>
+  </si>
+  <si>
+    <t>83.1017</t>
+  </si>
+  <si>
+    <t>BIC 29 TAM 15,5 8V OGGI FLOAT 5.0 ESSA AZ/PTO/RS</t>
+  </si>
+  <si>
+    <t>83.1018</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 15.5 FIRST FOSCO AZUL GALAXY/ BRANCO LIFTY - 55289</t>
+  </si>
+  <si>
+    <t>83.1019</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 15.5 FIRST AZUL GALAXY/ VERMELHO LIFTY - 54775</t>
+  </si>
+  <si>
+    <t>83.1020</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 17.5 FIRST CEREJA/ PRETO LIFTY - 50332</t>
+  </si>
+  <si>
+    <t>83.1021</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 17.5 FIRST AZUL HUNTER/ PRATA LIFTY - 48054</t>
+  </si>
+  <si>
+    <t>83.1022</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 17.5 FIRST GRAFITE/ VERMELHO LIFTY - 54814</t>
+  </si>
+  <si>
+    <t>83.1023</t>
+  </si>
+  <si>
+    <t>BICICLETA ARO 29 21V TAM 19 FIRST VIOLETA/ PRATA LIFTY LIFTY - 51745</t>
   </si>
 </sst>
 </file>
@@ -2920,17 +3247,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2963,7 +3290,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3444,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>288</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3425,7 +3752,7 @@
         <v>90</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,7 +3774,7 @@
         <v>94</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,7 +3785,7 @@
         <v>96</v>
       </c>
       <c r="C48">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,7 +4027,7 @@
         <v>140</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,7 +4093,7 @@
         <v>152</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3854,7 +4181,7 @@
         <v>168</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3865,7 +4192,7 @@
         <v>170</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3876,7 +4203,7 @@
         <v>172</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3887,7 +4214,7 @@
         <v>174</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3898,7 +4225,7 @@
         <v>176</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +4236,7 @@
         <v>178</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3931,7 +4258,7 @@
         <v>182</v>
       </c>
       <c r="C91">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3942,7 +4269,7 @@
         <v>184</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3953,7 +4280,7 @@
         <v>186</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3964,7 +4291,7 @@
         <v>188</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,7 +4456,7 @@
         <v>218</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,7 +4467,7 @@
         <v>220</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4195,7 +4522,7 @@
         <v>230</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,7 +4544,7 @@
         <v>234</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4228,7 +4555,7 @@
         <v>236</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,7 +4577,7 @@
         <v>240</v>
       </c>
       <c r="C120">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,7 +4588,7 @@
         <v>242</v>
       </c>
       <c r="C121">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4283,7 +4610,7 @@
         <v>246</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4294,7 +4621,7 @@
         <v>248</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4371,7 +4698,7 @@
         <v>262</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4404,7 +4731,7 @@
         <v>268</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,7 +4753,7 @@
         <v>272</v>
       </c>
       <c r="C136">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,7 +4764,7 @@
         <v>274</v>
       </c>
       <c r="C137">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,7 +4786,7 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,7 +4797,7 @@
         <v>280</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,7 +4852,7 @@
         <v>290</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4536,7 +4863,7 @@
         <v>292</v>
       </c>
       <c r="C146">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,7 +4874,7 @@
         <v>294</v>
       </c>
       <c r="C147">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,7 +4885,7 @@
         <v>296</v>
       </c>
       <c r="C148">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,7 +4896,7 @@
         <v>298</v>
       </c>
       <c r="C149">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,7 +4907,7 @@
         <v>300</v>
       </c>
       <c r="C150">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4591,7 +4918,7 @@
         <v>302</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,7 +4929,7 @@
         <v>304</v>
       </c>
       <c r="C152">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,7 +4940,7 @@
         <v>306</v>
       </c>
       <c r="C153">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4624,7 +4951,7 @@
         <v>308</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,7 +4962,7 @@
         <v>310</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4646,7 +4973,7 @@
         <v>312</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4668,7 +4995,7 @@
         <v>316</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4679,7 +5006,7 @@
         <v>318</v>
       </c>
       <c r="C159">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4690,7 +5017,7 @@
         <v>320</v>
       </c>
       <c r="C160">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4712,7 +5039,7 @@
         <v>324</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4723,7 +5050,7 @@
         <v>326</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4745,7 +5072,7 @@
         <v>330</v>
       </c>
       <c r="C165">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4756,7 +5083,7 @@
         <v>332</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4767,7 +5094,7 @@
         <v>334</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4778,7 +5105,7 @@
         <v>336</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,7 +5116,7 @@
         <v>338</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4800,7 +5127,7 @@
         <v>340</v>
       </c>
       <c r="C170">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4811,7 +5138,7 @@
         <v>342</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,7 +5149,7 @@
         <v>344</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4833,7 +5160,7 @@
         <v>346</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,7 +5171,7 @@
         <v>348</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4855,7 +5182,7 @@
         <v>350</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4888,7 +5215,7 @@
         <v>356</v>
       </c>
       <c r="C178">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4943,7 +5270,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5042,7 +5369,7 @@
         <v>384</v>
       </c>
       <c r="C192">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5053,7 +5380,7 @@
         <v>386</v>
       </c>
       <c r="C193">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,7 +5424,7 @@
         <v>394</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -5108,7 +5435,7 @@
         <v>396</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -5119,7 +5446,7 @@
         <v>398</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,7 +5479,7 @@
         <v>404</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -5174,7 +5501,7 @@
         <v>408</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5207,7 +5534,7 @@
         <v>414</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,7 +5545,7 @@
         <v>416</v>
       </c>
       <c r="C208">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,7 +5556,7 @@
         <v>418</v>
       </c>
       <c r="C209">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,7 +5567,7 @@
         <v>420</v>
       </c>
       <c r="C210">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -5251,7 +5578,7 @@
         <v>422</v>
       </c>
       <c r="C211">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5262,7 +5589,7 @@
         <v>424</v>
       </c>
       <c r="C212">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5273,7 +5600,7 @@
         <v>426</v>
       </c>
       <c r="C213">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5284,7 +5611,7 @@
         <v>428</v>
       </c>
       <c r="C214">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5295,7 +5622,7 @@
         <v>430</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5306,7 +5633,7 @@
         <v>432</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5317,7 +5644,7 @@
         <v>434</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5328,7 +5655,7 @@
         <v>436</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -5339,7 +5666,7 @@
         <v>438</v>
       </c>
       <c r="C219">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,7 +5699,7 @@
         <v>444</v>
       </c>
       <c r="C222">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,7 +5721,7 @@
         <v>448</v>
       </c>
       <c r="C224">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -5427,7 +5754,7 @@
         <v>454</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,7 +5765,7 @@
         <v>456</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,7 +5798,7 @@
         <v>462</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,7 +5809,7 @@
         <v>464</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,7 +5831,7 @@
         <v>468</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,7 +5842,7 @@
         <v>470</v>
       </c>
       <c r="C235">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5526,7 +5853,7 @@
         <v>472</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,7 +5875,7 @@
         <v>476</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,7 +5886,7 @@
         <v>478</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,7 +5941,7 @@
         <v>488</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,7 +5952,7 @@
         <v>490</v>
       </c>
       <c r="C245">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,7 +5963,7 @@
         <v>492</v>
       </c>
       <c r="C246">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,7 +5974,7 @@
         <v>494</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,7 +5985,7 @@
         <v>496</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,7 +5996,7 @@
         <v>498</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5680,7 +6007,7 @@
         <v>500</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,7 +6018,7 @@
         <v>502</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5713,7 +6040,7 @@
         <v>506</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,7 +6062,7 @@
         <v>510</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,7 +6073,7 @@
         <v>512</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,7 +6095,7 @@
         <v>516</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,7 +6117,7 @@
         <v>520</v>
       </c>
       <c r="C260">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,7 +6150,7 @@
         <v>526</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,7 +6194,7 @@
         <v>534</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,7 +6205,7 @@
         <v>536</v>
       </c>
       <c r="C268">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,7 +6227,7 @@
         <v>540</v>
       </c>
       <c r="C270">
-        <v>204</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,7 +6238,7 @@
         <v>542</v>
       </c>
       <c r="C271">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,7 +6260,7 @@
         <v>546</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,7 +6271,7 @@
         <v>548</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,7 +6326,7 @@
         <v>558</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -6351,7 +6678,7 @@
         <v>622</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,10 +7112,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B351" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -6796,10 +7123,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B352" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -6807,7 +7134,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B353" t="s">
         <v>705</v>
@@ -7341,7 +7668,7 @@
         <v>801</v>
       </c>
       <c r="C401">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,7 +7690,7 @@
         <v>805</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -7462,7 +7789,7 @@
         <v>823</v>
       </c>
       <c r="C412">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -7473,7 +7800,7 @@
         <v>825</v>
       </c>
       <c r="C413">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -7484,7 +7811,7 @@
         <v>827</v>
       </c>
       <c r="C414">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,7 +7822,7 @@
         <v>829</v>
       </c>
       <c r="C415">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -7506,7 +7833,7 @@
         <v>831</v>
       </c>
       <c r="C416">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -7539,7 +7866,7 @@
         <v>837</v>
       </c>
       <c r="C419">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -7550,7 +7877,7 @@
         <v>839</v>
       </c>
       <c r="C420">
-        <v>179</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -7561,7 +7888,7 @@
         <v>841</v>
       </c>
       <c r="C421">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -7572,7 +7899,7 @@
         <v>843</v>
       </c>
       <c r="C422">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,10 +7910,605 @@
         <v>845</v>
       </c>
       <c r="C423">
-        <v>100</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>846</v>
+      </c>
+      <c r="B424" t="s">
+        <v>847</v>
+      </c>
+      <c r="C424">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>848</v>
+      </c>
+      <c r="B425" t="s">
+        <v>849</v>
+      </c>
+      <c r="C425">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>850</v>
+      </c>
+      <c r="B426" t="s">
+        <v>851</v>
+      </c>
+      <c r="C426">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>852</v>
+      </c>
+      <c r="B427" t="s">
+        <v>853</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>854</v>
+      </c>
+      <c r="B428" t="s">
+        <v>855</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>856</v>
+      </c>
+      <c r="B429" t="s">
+        <v>857</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>858</v>
+      </c>
+      <c r="B430" t="s">
+        <v>859</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>860</v>
+      </c>
+      <c r="B431" t="s">
+        <v>861</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>862</v>
+      </c>
+      <c r="B432" t="s">
+        <v>863</v>
+      </c>
+      <c r="C432">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>864</v>
+      </c>
+      <c r="B433" t="s">
+        <v>865</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>866</v>
+      </c>
+      <c r="B434" t="s">
+        <v>867</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>868</v>
+      </c>
+      <c r="B435" t="s">
+        <v>869</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>870</v>
+      </c>
+      <c r="B436" t="s">
+        <v>871</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>872</v>
+      </c>
+      <c r="B437" t="s">
+        <v>873</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>874</v>
+      </c>
+      <c r="B438" t="s">
+        <v>875</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>876</v>
+      </c>
+      <c r="B439" t="s">
+        <v>877</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>878</v>
+      </c>
+      <c r="B440" t="s">
+        <v>879</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>880</v>
+      </c>
+      <c r="B441" t="s">
+        <v>881</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>882</v>
+      </c>
+      <c r="B442" t="s">
+        <v>883</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>884</v>
+      </c>
+      <c r="B443" t="s">
+        <v>885</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>886</v>
+      </c>
+      <c r="B444" t="s">
+        <v>887</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>888</v>
+      </c>
+      <c r="B445" t="s">
+        <v>889</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>890</v>
+      </c>
+      <c r="B446" t="s">
+        <v>891</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>892</v>
+      </c>
+      <c r="B447" t="s">
+        <v>893</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>894</v>
+      </c>
+      <c r="B448" t="s">
+        <v>895</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>896</v>
+      </c>
+      <c r="B449" t="s">
+        <v>897</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>898</v>
+      </c>
+      <c r="B450" t="s">
+        <v>899</v>
+      </c>
+      <c r="C450">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>900</v>
+      </c>
+      <c r="B451" t="s">
+        <v>901</v>
+      </c>
+      <c r="C451">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>902</v>
+      </c>
+      <c r="B452" t="s">
+        <v>903</v>
+      </c>
+      <c r="C452">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>904</v>
+      </c>
+      <c r="B453" t="s">
+        <v>905</v>
+      </c>
+      <c r="C453">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>906</v>
+      </c>
+      <c r="B454" t="s">
+        <v>907</v>
+      </c>
+      <c r="C454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>908</v>
+      </c>
+      <c r="B455" t="s">
+        <v>909</v>
+      </c>
+      <c r="C455">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>910</v>
+      </c>
+      <c r="B456" t="s">
+        <v>911</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>912</v>
+      </c>
+      <c r="B457" t="s">
+        <v>913</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>914</v>
+      </c>
+      <c r="B458" t="s">
+        <v>915</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>916</v>
+      </c>
+      <c r="B459" t="s">
+        <v>917</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>918</v>
+      </c>
+      <c r="B460" t="s">
+        <v>919</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>920</v>
+      </c>
+      <c r="B461" t="s">
+        <v>921</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>922</v>
+      </c>
+      <c r="B462" t="s">
+        <v>923</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>924</v>
+      </c>
+      <c r="B463" t="s">
+        <v>925</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>926</v>
+      </c>
+      <c r="B464" t="s">
+        <v>927</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>928</v>
+      </c>
+      <c r="B465" t="s">
+        <v>929</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>930</v>
+      </c>
+      <c r="B466" t="s">
+        <v>931</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>932</v>
+      </c>
+      <c r="B467" t="s">
+        <v>933</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>934</v>
+      </c>
+      <c r="B468" t="s">
+        <v>935</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>936</v>
+      </c>
+      <c r="B469" t="s">
+        <v>937</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>938</v>
+      </c>
+      <c r="B470" t="s">
+        <v>939</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>940</v>
+      </c>
+      <c r="B471" t="s">
+        <v>941</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>942</v>
+      </c>
+      <c r="B472" t="s">
+        <v>943</v>
+      </c>
+      <c r="C472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>944</v>
+      </c>
+      <c r="B473" t="s">
+        <v>945</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>946</v>
+      </c>
+      <c r="B474" t="s">
+        <v>947</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>948</v>
+      </c>
+      <c r="B475" t="s">
+        <v>949</v>
+      </c>
+      <c r="C475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>950</v>
+      </c>
+      <c r="B476" t="s">
+        <v>951</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>952</v>
+      </c>
+      <c r="B477" t="s">
+        <v>953</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C477" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>